--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_19-26.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_19-26.xlsx
@@ -179,6 +179,9 @@
     <t>6:2</t>
   </si>
   <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
     <t>MECLIZIGO 25 MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
+    <t>PHARSERT 300SUPP</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -233,12 +239,18 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
     <t>UNICTAM 750 MG I.M/I.V VIAL</t>
   </si>
   <si>
+    <t xml:space="preserve">URINEX 36 CAP </t>
+  </si>
+  <si>
     <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -293,6 +305,9 @@
     <t>-1:0</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -306,9 +321,6 @@
   </si>
   <si>
     <t>فرش اسنان HASI</t>
-  </si>
-  <si>
-    <t>11:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1763,13 +1775,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1789,13 +1801,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>128.25</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1815,13 +1827,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1841,13 +1853,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1867,13 +1879,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1893,17 +1905,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1919,17 +1931,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>22.079999999999998</v>
+        <v>16</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1945,17 +1957,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>102</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1971,13 +1983,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1997,13 +2009,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2023,17 +2035,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2041,7 +2053,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2049,13 +2061,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2067,7 +2079,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2075,17 +2087,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2093,7 +2105,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2107,7 +2119,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2119,7 +2131,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2127,13 +2139,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2153,17 +2165,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2179,17 +2191,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2205,17 +2217,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2231,17 +2243,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2257,17 +2269,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2283,17 +2295,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2301,7 +2313,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2309,17 +2321,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2327,7 +2339,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2335,17 +2347,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2353,7 +2365,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2361,13 +2373,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2379,7 +2391,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2387,13 +2399,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2405,7 +2417,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2413,17 +2425,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2431,7 +2443,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2439,13 +2451,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2465,17 +2477,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2483,7 +2495,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2491,17 +2503,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2509,7 +2521,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2517,17 +2529,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2535,7 +2547,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2543,17 +2555,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2561,7 +2573,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2569,17 +2581,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2587,7 +2599,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2595,17 +2607,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2613,7 +2625,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2621,17 +2633,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2639,7 +2651,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2647,17 +2659,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2665,7 +2677,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2679,7 +2691,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2691,7 +2703,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2699,13 +2711,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2717,7 +2729,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2725,17 +2737,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2743,7 +2755,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2751,13 +2763,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2769,7 +2781,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2777,51 +2789,155 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="K76" s="10">
-        <v>5638.7299999999996</v>
-      </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="11">
+    <row r="76" ht="24.75" customHeight="1">
+      <c r="A76" s="6">
+        <v>73</v>
+      </c>
+      <c t="s" r="B76" s="7">
+        <v>108</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c t="s" r="H76" s="8">
+        <v>102</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="9">
+        <v>50</v>
+      </c>
+      <c r="M76" s="9"/>
+      <c t="s" r="N76" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="6">
+        <v>74</v>
+      </c>
+      <c t="s" r="B77" s="7">
+        <v>109</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c t="s" r="H77" s="8">
         <v>110</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c t="s" r="F77" s="12">
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="9">
+        <v>72</v>
+      </c>
+      <c r="M77" s="9"/>
+      <c t="s" r="N77" s="7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" customHeight="1">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
         <v>111</v>
       </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="13"/>
-      <c t="s" r="I77" s="14">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
+        <v>9</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>70</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c t="s" r="N78" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
         <v>112</v>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>113</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>45</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c t="s" r="N79" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" ht="26.25" customHeight="1">
+      <c r="K80" s="10">
+        <v>5790.7299999999996</v>
+      </c>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="11">
+        <v>114</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c t="s" r="F81" s="12">
+        <v>115</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13"/>
+      <c t="s" r="I81" s="14">
+        <v>116</v>
+      </c>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="239">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3045,10 +3161,22 @@
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="I77:N77"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I81:N81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
